--- a/Teaching/2018-2019/PS web page/results/Tabel_Prob_Stat_2018_2019_Restanta_Septembrie.xlsx
+++ b/Teaching/2018-2019/PS web page/results/Tabel_Prob_Stat_2018_2019_Restanta_Septembrie.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5EE1F5-5805-46A5-8AF4-30DBB2DE5A1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2716513F-A8F9-45F5-8848-2433F447FA03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Centralizator" sheetId="1" r:id="rId1"/>
@@ -1318,8 +1318,8 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="S2">
         <f>SUMIF(J2:J44,"= 4")/4</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <f xml:space="preserve"> ROUND(1 + I2/5,2)</f>
@@ -4107,11 +4107,11 @@
       </c>
       <c r="I44">
         <f>SUMPRODUCT(Examen!C44:I44,Weights!$B$8:$H$8)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J44" s="6">
         <f>IF(I44&gt;O$2,MAX(4,ROUND(1 + I44/5,0),ROUND(MIN(10,1+0.6*(C44/(10*SUM(Weights!$B$2:$I$2))+D44/(10*SUM(Weights!$B$3:$H$3))+E44/(10*SUM(Weights!$B$4:$H$4))+F44/(10*SUM(Weights!$B$5:$H$5))+G44/(10*SUM(Weights!$B$6:$G$6)))+I44/50*7+H44/100+M44),0)),IF(I44=0,"Absent",4))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L44">
         <f>C44/(10*SUM(Weights!$B$2:$I$2))+D44/(10*SUM(Weights!$B$3:$H$3))+E44/(10*SUM(Weights!$B$4:$H$4))+F44/(10*SUM(Weights!$B$5:$H$5))+G44/(10*SUM(Weights!$B$6:$G$6))</f>
@@ -4123,15 +4123,15 @@
       </c>
       <c r="Q44">
         <f>MIN(10,1+0.6*(C44/(10*SUM(Weights!$B$2:$I$2))+D44/(10*SUM(Weights!$B$3:$H$3))+E44/(10*SUM(Weights!$B$4:$H$4))+F44/(10*SUM(Weights!$B$5:$H$5))+G44/(10*SUM(Weights!$B$6:$G$6)))+I44/50*7+H44/100+M44)</f>
-        <v>2.96</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="R44">
         <f>MAX(4,1 + I44/6,MIN(10,1+0.6*(C44/(10*SUM(Weights!$B$2:$I$2))+D44/(10*SUM(Weights!$B$3:$H$3))+E44/(10*SUM(Weights!$B$4:$H$4))+F44/(10*SUM(Weights!$B$5:$H$5))+G44/(10*SUM(Weights!$B$6:$G$6)))+I44/60*7+H44/100+M44))</f>
-        <v>4</v>
+        <v>4.3333333333333339</v>
       </c>
       <c r="T44">
         <f t="shared" si="0"/>
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="U44">
         <f t="shared" si="1"/>
@@ -7348,7 +7348,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8024,13 +8024,13 @@
         <v>244</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F44">
         <v>3</v>
